--- a/diurenmw/Excels/WeaponObj_武器类型表.xlsx
+++ b/diurenmw/Excels/WeaponObj_武器类型表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11691"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>int</t>
   </si>
@@ -86,10 +86,140 @@
     <t>名称</t>
   </si>
   <si>
-    <t>武器种类：&amp;#xA;1.剑</t>
-  </si>
-  <si>
-    <t>品级：&amp;#xA;1.普通&amp;#xA;2.高级&amp;#xA;3.稀有&amp;#xA;4.传说&amp;#xA;5.史诗</t>
+    <r>
+      <t>武器种类：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;#xA;1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刀剑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法杖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;#xA;3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弓弩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品级：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;#xA;1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;#xA;2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;#xA;3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稀有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;#xA;4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>史诗</t>
+    </r>
   </si>
   <si>
     <t>模型</t>
@@ -125,7 +255,7 @@
     <t>堆叠数量上限</t>
   </si>
   <si>
-    <t>大剑</t>
+    <t>生锈的铁剑</t>
   </si>
   <si>
     <t>ED1D823242771BAA249294A58DE4710A</t>
@@ -134,19 +264,159 @@
     <t>15|20</t>
   </si>
   <si>
-    <t>5|10</t>
-  </si>
-  <si>
-    <t>超级无敌牛逼大剑</t>
+    <t>7|10</t>
+  </si>
+  <si>
+    <t>石中剑</t>
   </si>
   <si>
     <t>4D82B7F549634FA3E420FA80E2FB3CD3</t>
   </si>
   <si>
-    <t>180|200</t>
-  </si>
-  <si>
-    <t>50|80</t>
+    <t>400|450</t>
+  </si>
+  <si>
+    <t>200|225</t>
+  </si>
+  <si>
+    <r>
+      <t>技能伤增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>％</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>％</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>防御力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>％</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>血量增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>％</t>
+    </r>
+  </si>
+  <si>
+    <t>树枝</t>
+  </si>
+  <si>
+    <t>陨星杖</t>
+  </si>
+  <si>
+    <t>技能伤增加20％</t>
+  </si>
+  <si>
+    <t>技能CD减少20％</t>
+  </si>
+  <si>
+    <t>释放技能时10％几率召唤陨石</t>
+  </si>
+  <si>
+    <t>释放技能时1％几率召唤大陨石</t>
+  </si>
+  <si>
+    <t>随时会断的弓</t>
+  </si>
+  <si>
+    <t>14|18</t>
+  </si>
+  <si>
+    <t>13|16</t>
+  </si>
+  <si>
+    <t>月神的弓弦</t>
+  </si>
+  <si>
+    <t>350|410</t>
+  </si>
+  <si>
+    <t>330|395</t>
+  </si>
+  <si>
+    <t>攻击速度增加10％</t>
+  </si>
+  <si>
+    <t>攻击力增加20％</t>
+  </si>
+  <si>
+    <t>命中时使敌人减速10％</t>
+  </si>
+  <si>
+    <t>箭矢附带冰蓝色拖尾</t>
   </si>
 </sst>
 </file>
@@ -174,11 +444,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -628,19 +897,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,7 +918,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,7 +1042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -783,8 +1052,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1134,21 +1418,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.5765765765766" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.009009009009" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.009009009009" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.009009009009" style="2" customWidth="1"/>
-    <col min="6" max="7" width="13.5765765765766" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.5765765765766" style="1" customWidth="1"/>
-    <col min="10" max="13" width="13.5765765765766" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.575" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.0083333333333" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.0083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.0083333333333" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.575" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.575" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:15">
@@ -1252,10 +1539,10 @@
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1297,16 +1584,16 @@
       <c r="B4" s="4"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1001</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1318,11 +1605,11 @@
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="5">
-        <v>20</v>
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
       </c>
       <c r="N5">
         <v>37668</v>
@@ -1332,17 +1619,17 @@
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>1002</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>5</v>
+      <c r="D6" s="6">
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>37</v>
@@ -1353,23 +1640,23 @@
       <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="5">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="5">
-        <v>300</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>26</v>
+      <c r="H6" s="6">
+        <v>170</v>
+      </c>
+      <c r="I6" s="6">
+        <v>90</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="N6">
         <v>37668</v>
@@ -1379,105 +1666,292 @@
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A7" s="3"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A8" s="3"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A10" s="3"/>
+    <row r="10" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A10" s="6"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:15">
+      <c r="A11" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:15">
+      <c r="A12" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1">
+        <v>90</v>
+      </c>
+      <c r="I12" s="1">
+        <v>170</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A14" s="3"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="4"/>
+    <row r="15" ht="18.75" customHeight="1" spans="1:15">
+      <c r="A15" s="6">
+        <v>3001</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:15">
+      <c r="A16" s="6">
+        <v>3002</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1">
+        <v>130</v>
+      </c>
+      <c r="I16" s="1">
+        <v>130</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A17" s="3"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A18" s="3"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A19" s="3"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A20" s="3"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="4"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
